--- a/results/I3_N5_M2_T15_C100_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2834.061540525315</v>
+        <v>823.9011839847824</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.28691311485504</v>
+        <v>20.57702921450956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.12905862368921</v>
+        <v>5.635601184963661</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.773686034148751</v>
+        <v>2.959755955236492</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2604.470000000001</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.66</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -672,12 +672,23 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -857,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -951,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.43123270582125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.470855023045354</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.37739353073907</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>12.57904977333279</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.655348703365666</v>
+        <v>13.18449368032031</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.49989205841819</v>
+        <v>14.02175110787769</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,10 +1056,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1059,10 +1070,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1073,10 +1084,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1087,10 +1098,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1101,10 +1112,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1115,10 +1126,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1129,10 +1140,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1143,10 +1154,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1157,10 +1168,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1171,10 +1182,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1185,7 +1196,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
@@ -1199,13 +1210,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1213,13 +1224,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1227,13 +1238,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1241,127 +1252,15 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>239.7800000000012</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1475,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>259.4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1486,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>266.0400000000012</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1497,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>269.75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1508,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>265.9450000000012</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1519,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1541,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1552,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1563,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1574,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.0599999999993</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1585,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999993</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -1596,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.7149999999993</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
@@ -1607,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.8399999999993</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -1618,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.2699999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -1629,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23">
@@ -1640,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -1651,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25">
@@ -1662,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26">
@@ -1673,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -1684,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>171.6050000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -1695,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>183.2700000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -1706,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>190.2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -1717,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>192.8400000000006</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1728,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>190.0950000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1739,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>239.7800000000012</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33">
@@ -1750,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>259.4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34">
@@ -1761,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>266.0400000000012</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
@@ -1772,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>269.75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1783,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>265.9450000000011</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
@@ -1794,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999993</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1805,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -1816,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999993</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1827,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -1838,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999994</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>139.7800000000012</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1896,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>159.4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -1907,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>166.0400000000012</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -1918,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>169.75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1929,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>165.9450000000011</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0599999999993</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1951,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.43499999999935</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1962,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7149999999993</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1973,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.83999999999935</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1984,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2699999999994</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2042,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2053,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2064,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2075,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2086,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2097,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2108,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2119,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2130,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2141,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2163,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2174,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2185,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2251,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2262,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2273,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2284,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2295,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2336,7 +2235,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2347,7 +2246,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2358,7 +2257,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2369,7 +2268,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2380,7 +2279,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2391,7 +2290,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2402,7 +2301,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2413,7 +2312,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2424,7 +2323,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2435,7 +2334,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2446,7 +2345,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2457,7 +2356,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2468,7 +2367,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2479,7 +2378,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2490,111 +2389,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>
